--- a/src/assets/Template Excel/Layout_PM_Stop_Machine.xlsx
+++ b/src/assets/Template Excel/Layout_PM_Stop_Machine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CD30F3-5C62-428B-B684-6A356C1883B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4702908B-D83D-41F1-9CDD-F1A53E64DAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{98599F23-1BE4-4A3B-8CC6-EA404D55BCA4}"/>
+    <workbookView xWindow="4330" yWindow="2990" windowWidth="14400" windowHeight="7810" xr2:uid="{98599F23-1BE4-4A3B-8CC6-EA404D55BCA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -101,16 +102,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -118,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453AABA9-36BE-4966-BA30-BCAA6A90CA07}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,6 +481,106 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/Template Excel/Layout_PM_Stop_Machine.xlsx
+++ b/src/assets/Template Excel/Layout_PM_Stop_Machine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4702908B-D83D-41F1-9CDD-F1A53E64DAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36496ED-7C22-4AB2-8208-50B947220496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4330" yWindow="2990" windowWidth="14400" windowHeight="7810" xr2:uid="{98599F23-1BE4-4A3B-8CC6-EA404D55BCA4}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7810" xr2:uid="{98599F23-1BE4-4A3B-8CC6-EA404D55BCA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NOMOR</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>END_TIME</t>
-  </si>
-  <si>
-    <t>TOTAL_TIME</t>
   </si>
   <si>
     <t>START_DATE</t>
@@ -437,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453AABA9-36BE-4966-BA30-BCAA6A90CA07}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,10 +449,9 @@
     <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.26953125" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,22 +462,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -489,9 +482,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -499,9 +491,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -509,9 +500,8 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -519,9 +509,8 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -529,9 +518,8 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -539,9 +527,8 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -549,9 +536,8 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -559,9 +545,8 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -569,9 +554,8 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -579,7 +563,6 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
